--- a/Antecedentes/Entrada.xlsx
+++ b/Antecedentes/Entrada.xlsx
@@ -1,40 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\OneDrive\Escritorio\Automatic links\Antecedentes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA1D77-60BE-4761-B022-E24EF2E881A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>CEDULA</t>
+  </si>
+  <si>
+    <t>FECHA_EXP</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>EDINSON NORBERTO FUENTES ALVARADO</t>
+  </si>
+  <si>
+    <t>1098646567</t>
+  </si>
+  <si>
+    <t>DANIEL ODILSON ALCARAZ BENITEZ</t>
+  </si>
+  <si>
+    <t>15539468</t>
+  </si>
+  <si>
+    <t>JENNY PAOLA ECHEVERRY FLOREZ</t>
+  </si>
+  <si>
+    <t>1088004698</t>
+  </si>
+  <si>
+    <t>JUAN SEBASTIAN GUTIERREZ VILLARAGA</t>
+  </si>
+  <si>
+    <t>1032505280</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA AVILES CUELLAR</t>
+  </si>
+  <si>
+    <t>38211565</t>
+  </si>
+  <si>
+    <t>ALVARO MIGUEL OROZCO RICO</t>
+  </si>
+  <si>
+    <t>1116549177</t>
+  </si>
+  <si>
+    <t>JADER ANDRES MARTINEZ FRANCO</t>
+  </si>
+  <si>
+    <t>1114090839</t>
+  </si>
+  <si>
+    <t>ANA MARITZA MARTINEZ DUQUE</t>
+  </si>
+  <si>
+    <t>39673274</t>
+  </si>
+  <si>
+    <t>CRITIAN ANDREY ARANGO OTERO</t>
+  </si>
+  <si>
+    <t>1115082559</t>
+  </si>
+  <si>
+    <t>JUAN ANDRES GOMEZ ESCOBAR</t>
+  </si>
+  <si>
+    <t>1029982433</t>
+  </si>
+  <si>
+    <t>Validar con dijin</t>
+  </si>
+  <si>
+    <t>MARCO TULIO ARANGO SANCHEZ</t>
+  </si>
+  <si>
+    <t>14896335</t>
+  </si>
+  <si>
+    <t>LUZ AMPARO MARIN VELASQUEZ</t>
+  </si>
+  <si>
+    <t>31498131</t>
+  </si>
+  <si>
+    <t>GLADYS DEL CARMEN SALCEDO GUZMAN</t>
+  </si>
+  <si>
+    <t>66759555</t>
+  </si>
+  <si>
+    <t>ANA BEATRIZ OSORIO URIBE</t>
+  </si>
+  <si>
+    <t>1094925350</t>
+  </si>
+  <si>
+    <t>YUSETH JUDITH PITALUA DORIA</t>
+  </si>
+  <si>
+    <t>39463085</t>
+  </si>
+  <si>
+    <t>JOSE FERNANDO VARELA GUERRA</t>
+  </si>
+  <si>
+    <t>72054120</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +193,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,105 +518,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CEDULA</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FECHA_EXP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CODIGO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>LINK</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OBSERVACIONES</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ORFA PAPAMIJA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>34565823</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>33702</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5259423019140</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ANDRES RINCON GALEANO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1013603552</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>39182</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>52594605100</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="D2" s="2">
+        <v>38705</v>
+      </c>
+      <c r="E2">
+        <v>5259122413218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36234</v>
+      </c>
+      <c r="E3">
+        <v>52591519202002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>39759</v>
+      </c>
+      <c r="E4">
+        <v>52599180674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42902</v>
+      </c>
+      <c r="E5">
+        <v>5259159232105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37945</v>
+      </c>
+      <c r="E6">
+        <v>52591562481923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40912</v>
+      </c>
+      <c r="E7">
+        <v>5259151077154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>39316</v>
+      </c>
+      <c r="E8">
+        <v>52591291818237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>34850</v>
+      </c>
+      <c r="E9">
+        <v>525915211817514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41101</v>
+      </c>
+      <c r="E10">
+        <v>52591522224122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45328</v>
+      </c>
+      <c r="E11">
+        <v>232</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2">
+        <v>33480</v>
+      </c>
+      <c r="E12">
+        <v>525912172214120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>34372</v>
+      </c>
+      <c r="E13">
+        <v>52591518172226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32472</v>
+      </c>
+      <c r="E14">
+        <v>52591512420417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40197</v>
+      </c>
+      <c r="E15">
+        <v>525915242014216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
+        <v>37797</v>
+      </c>
+      <c r="E16">
+        <v>525915423142114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2">
+        <v>37151</v>
+      </c>
+      <c r="E17">
+        <v>52591213230</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Antecedentes/Entrada.xlsx
+++ b/Antecedentes/Entrada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\OneDrive\Escritorio\Automatic links\Antecedentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\OneDrive\Escritorio\Automatizaciones-ApostillaColombia\Antecedentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBA1D77-60BE-4761-B022-E24EF2E881A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B813DA-73B4-4E44-A8E3-9581BB46CF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -62,6 +62,12 @@
     <t>1098646567</t>
   </si>
   <si>
+    <t>Ver Documento</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>DANIEL ODILSON ALCARAZ BENITEZ</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
     <t>1088004698</t>
   </si>
   <si>
+    <t>No se han encontrado registros</t>
+  </si>
+  <si>
     <t>JUAN SEBASTIAN GUTIERREZ VILLARAGA</t>
   </si>
   <si>
@@ -114,9 +123,6 @@
   </si>
   <si>
     <t>1029982433</t>
-  </si>
-  <si>
-    <t>Validar con dijin</t>
   </si>
   <si>
     <t>MARCO TULIO ARANGO SANCHEZ</t>
@@ -160,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +181,25 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF9999"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -211,12 +229,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,13 +545,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,7 +569,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -566,8 +592,14 @@
       <c r="D2" s="2">
         <v>38705</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>5259122413218</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,16 +607,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>36234</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>52591519202002</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,16 +630,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>39759</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>52599180674</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,16 +650,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>42902</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>5259159232105</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,16 +673,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>37945</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>52591562481923</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,16 +696,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>40912</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>5259151077154</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,16 +719,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>39316</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>52591291818237</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -677,16 +742,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>34850</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>525915211817514</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,16 +765,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>41101</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>52591522224122</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,19 +788,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45328</v>
       </c>
-      <c r="E11">
-        <v>232</v>
+      <c r="E11" s="4">
+        <v>52591718751419</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,16 +811,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>33480</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>525912172214120</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -748,16 +834,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>34372</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>52591518172226</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,16 +857,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>32472</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>52591512420417</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,16 +880,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2">
         <v>40197</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>525915242014216</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,36 +903,66 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2">
         <v>37797</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>525915423142114</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2">
         <v>37151</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>52591213230</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Antecedentes/Entrada.xlsx
+++ b/Antecedentes/Entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\OneDrive\Escritorio\Automatizaciones-ApostillaColombia\Antecedentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B813DA-73B4-4E44-A8E3-9581BB46CF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85C9505-2CDB-4BA3-B82E-FF0A8488ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -56,109 +56,61 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>EDINSON NORBERTO FUENTES ALVARADO</t>
-  </si>
-  <si>
-    <t>1098646567</t>
-  </si>
-  <si>
-    <t>Ver Documento</t>
+    <t>BRIAN JOHAN CASTAÑO LOZANO</t>
+  </si>
+  <si>
+    <t>1115072206</t>
+  </si>
+  <si>
+    <t>Link de apostilla</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>DANIEL ODILSON ALCARAZ BENITEZ</t>
-  </si>
-  <si>
-    <t>15539468</t>
-  </si>
-  <si>
-    <t>JENNY PAOLA ECHEVERRY FLOREZ</t>
-  </si>
-  <si>
-    <t>1088004698</t>
-  </si>
-  <si>
-    <t>No se han encontrado registros</t>
-  </si>
-  <si>
-    <t>JUAN SEBASTIAN GUTIERREZ VILLARAGA</t>
-  </si>
-  <si>
-    <t>1032505280</t>
-  </si>
-  <si>
-    <t>DIANA MARCELA AVILES CUELLAR</t>
-  </si>
-  <si>
-    <t>38211565</t>
-  </si>
-  <si>
-    <t>ALVARO MIGUEL OROZCO RICO</t>
-  </si>
-  <si>
-    <t>1116549177</t>
-  </si>
-  <si>
-    <t>JADER ANDRES MARTINEZ FRANCO</t>
-  </si>
-  <si>
-    <t>1114090839</t>
-  </si>
-  <si>
-    <t>ANA MARITZA MARTINEZ DUQUE</t>
-  </si>
-  <si>
-    <t>39673274</t>
-  </si>
-  <si>
-    <t>CRITIAN ANDREY ARANGO OTERO</t>
-  </si>
-  <si>
-    <t>1115082559</t>
-  </si>
-  <si>
-    <t>JUAN ANDRES GOMEZ ESCOBAR</t>
-  </si>
-  <si>
-    <t>1029982433</t>
-  </si>
-  <si>
-    <t>MARCO TULIO ARANGO SANCHEZ</t>
-  </si>
-  <si>
-    <t>14896335</t>
-  </si>
-  <si>
-    <t>LUZ AMPARO MARIN VELASQUEZ</t>
-  </si>
-  <si>
-    <t>31498131</t>
-  </si>
-  <si>
-    <t>GLADYS DEL CARMEN SALCEDO GUZMAN</t>
-  </si>
-  <si>
-    <t>66759555</t>
-  </si>
-  <si>
-    <t>ANA BEATRIZ OSORIO URIBE</t>
-  </si>
-  <si>
-    <t>1094925350</t>
-  </si>
-  <si>
-    <t>YUSETH JUDITH PITALUA DORIA</t>
-  </si>
-  <si>
-    <t>39463085</t>
-  </si>
-  <si>
-    <t>JOSE FERNANDO VARELA GUERRA</t>
-  </si>
-  <si>
-    <t>72054120</t>
+    <t>ALIX VERONICA ESPINOSA TORRES</t>
+  </si>
+  <si>
+    <t>1093915412</t>
+  </si>
+  <si>
+    <t>DOUGLAS ANTONIO RENGIFO DIAZ</t>
+  </si>
+  <si>
+    <t>1144025784</t>
+  </si>
+  <si>
+    <t>YEINNY PAOLA RUDAS GUTIERREZ</t>
+  </si>
+  <si>
+    <t>1225092556</t>
+  </si>
+  <si>
+    <t>SCHENEIDER MAHECHA TRIANA</t>
+  </si>
+  <si>
+    <t>1070955418</t>
+  </si>
+  <si>
+    <t>MARTHA STELLA MORALES SANCHEZ</t>
+  </si>
+  <si>
+    <t>1073230817</t>
+  </si>
+  <si>
+    <t>LUIS JHONATAN VELASQUEZ MONTES</t>
+  </si>
+  <si>
+    <t>1151935587</t>
+  </si>
+  <si>
+    <t>KAMEL HASSAN GOMEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1115092664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIAR CC </t>
   </si>
 </sst>
 </file>
@@ -188,18 +140,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFF9999"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -229,18 +175,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,17 +490,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G9" sqref="A2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,10 +537,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>38705</v>
+        <v>39472</v>
       </c>
       <c r="E2" s="4">
-        <v>5259122413218</v>
+        <v>52592623210</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -613,10 +560,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>36234</v>
+        <v>40925</v>
       </c>
       <c r="E3" s="4">
-        <v>52591519202002</v>
+        <v>525926181912512</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>9</v>
@@ -636,13 +583,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>39759</v>
+        <v>39239</v>
       </c>
       <c r="E4" s="4">
-        <v>52599180674</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>5259236422014</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -650,16 +600,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="2">
-        <v>42902</v>
+        <v>42894</v>
       </c>
       <c r="E5" s="4">
-        <v>5259159232105</v>
+        <v>52592615842015</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>9</v>
@@ -673,16 +623,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="2">
-        <v>37945</v>
+        <v>39363</v>
       </c>
       <c r="E6" s="4">
-        <v>52591562481923</v>
+        <v>525926121910248</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
@@ -696,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="2">
-        <v>40912</v>
+        <v>38357</v>
       </c>
       <c r="E7" s="4">
-        <v>5259151077154</v>
+        <v>525926141015424</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
@@ -719,16 +669,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="2">
-        <v>39316</v>
+        <v>41190</v>
       </c>
       <c r="E8" s="4">
-        <v>52591291818237</v>
+        <v>52592613138111</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>9</v>
@@ -742,227 +692,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2">
+        <v>42793</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2">
-        <v>34850</v>
-      </c>
-      <c r="E9" s="4">
-        <v>525915211817514</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2">
-        <v>41101</v>
-      </c>
-      <c r="E10" s="4">
-        <v>52591522224122</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45328</v>
-      </c>
-      <c r="E11" s="4">
-        <v>52591718751419</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2">
-        <v>33480</v>
-      </c>
-      <c r="E12" s="4">
-        <v>525912172214120</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>34372</v>
-      </c>
-      <c r="E13" s="4">
-        <v>52591518172226</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2">
-        <v>32472</v>
-      </c>
-      <c r="E14" s="4">
-        <v>52591512420417</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2">
-        <v>40197</v>
-      </c>
-      <c r="E15" s="4">
-        <v>525915242014216</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2">
-        <v>37797</v>
-      </c>
-      <c r="E16" s="4">
-        <v>525915423142114</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2">
-        <v>37151</v>
-      </c>
-      <c r="E17" s="4">
-        <v>52591213230</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>